--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
     <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>用户账号(code)</t>
   </si>
@@ -21,10 +22,13 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>guanyu99</t>
+    <t>111</t>
   </si>
   <si>
-    <t>关羽99</t>
+    <t>1111</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -69,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -84,62 +88,32 @@
       </c>
       <c r="C1"/>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50">
-      <c r="A50" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C50"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -156,4 +130,16 @@
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>用户账号(code)</t>
   </si>
@@ -22,13 +22,7 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t/>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -73,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2"/>
     </row>
@@ -102,18 +96,63 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>用户账号(code)</t>
   </si>
@@ -22,13 +22,10 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>zhaoyun</t>
+    <t>zhangfei99</t>
   </si>
   <si>
-    <t>赵云</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
+    <t>张飞99</t>
   </si>
 </sst>
 </file>
@@ -73,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,24 +93,6 @@
         <v>3</v>
       </c>
       <c r="C2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -7,14 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>用户账号(code)</t>
   </si>
@@ -22,10 +20,7 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>zhangfei99</t>
-  </si>
-  <si>
-    <t>张飞99</t>
+    <t>99999</t>
   </si>
 </sst>
 </file>
@@ -90,35 +85,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -7,14 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>用户账号(code)</t>
   </si>
@@ -22,10 +20,16 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>zhangfei99</t>
+    <t>zhangfei3100</t>
   </si>
   <si>
-    <t>张飞99</t>
+    <t>张飞100</t>
+  </si>
+  <si>
+    <t>guanyu3100</t>
+  </si>
+  <si>
+    <t>关羽100</t>
   </si>
 </sst>
 </file>
@@ -70,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,31 +98,21 @@
       </c>
       <c r="C2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/importTemp.xlsx
+++ b/importTemp.xlsx
@@ -20,16 +20,16 @@
     <t>用户姓名</t>
   </si>
   <si>
-    <t>zhangfei3100</t>
-  </si>
-  <si>
-    <t>张飞100</t>
-  </si>
-  <si>
-    <t>guanyu3100</t>
+    <t>guanyu101</t>
   </si>
   <si>
     <t>关羽100</t>
+  </si>
+  <si>
+    <t>zhaoyun104</t>
+  </si>
+  <si>
+    <t>赵云100</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,11 +107,6 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
